--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB431D8E-9123-4A16-94E4-27960DC188E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -130,10 +129,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>ContrRateIncr</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>額度</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -649,11 +644,15 @@
 3:定期機動</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>ContrRateIncr</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -998,9 +997,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般 2 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1091,23 +1090,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1143,23 +1125,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1335,11 +1300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1359,10 +1324,10 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1372,7 +1337,7 @@
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1387,7 +1352,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1468,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -1487,13 +1452,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="19">
         <v>7</v>
@@ -1506,13 +1471,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
@@ -1525,13 +1490,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="19">
         <v>3</v>
@@ -1544,20 +1509,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1565,13 +1530,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="19">
         <v>14</v>
@@ -1584,13 +1549,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
@@ -1603,13 +1568,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="19">
         <v>3</v>
@@ -1622,20 +1587,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>76</v>
-      </c>
       <c r="D17" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48.6">
@@ -1643,20 +1608,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="23">
         <v>1</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1664,20 +1629,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1685,20 +1650,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="D20" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1712,7 +1677,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="19">
         <v>14</v>
@@ -1731,7 +1696,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="19">
         <v>14</v>
@@ -1744,20 +1709,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="23">
         <v>8</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1765,13 +1730,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="23">
         <v>8</v>
@@ -1784,13 +1749,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="23">
         <v>8</v>
@@ -1803,20 +1768,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>84</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="23">
         <v>2</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1824,13 +1789,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="23">
         <v>8</v>
@@ -1849,14 +1814,14 @@
         <v>21</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1864,13 +1829,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="19">
         <v>5</v>
@@ -1883,13 +1848,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="19">
         <v>6</v>
@@ -1898,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1906,13 +1871,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="19">
         <v>6</v>
@@ -1927,13 +1892,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="19">
         <v>6</v>
@@ -1948,13 +1913,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="19">
         <v>6</v>
@@ -1969,13 +1934,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="19">
         <v>6</v>
@@ -1990,13 +1955,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="19">
         <v>6</v>
@@ -2005,7 +1970,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2013,13 +1978,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="19">
         <v>6</v>
@@ -2028,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2036,13 +2001,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="19">
         <v>6</v>
@@ -2051,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2059,20 +2024,20 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="D38" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="23">
         <v>2</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2080,20 +2045,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" s="27">
         <v>1</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2101,13 +2066,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" s="19">
         <v>6</v>
@@ -2116,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2124,20 +2089,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="23">
         <v>8</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2145,13 +2110,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E42" s="23">
         <v>2</v>
@@ -2164,13 +2129,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>98</v>
-      </c>
       <c r="D43" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="31">
         <v>300</v>
@@ -2183,13 +2148,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="D44" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2200,13 +2165,13 @@
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" s="19">
         <v>6</v>
@@ -2218,13 +2183,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="D46" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E46" s="19">
         <v>8</v>
@@ -2236,13 +2201,13 @@
         <v>36</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>47</v>
       </c>
       <c r="E47" s="23"/>
       <c r="G47" s="25"/>
@@ -2252,13 +2217,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="E48" s="23">
         <v>6</v>
@@ -2270,13 +2235,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="E49" s="23"/>
       <c r="G49" s="25"/>
@@ -2286,13 +2251,13 @@
         <v>39</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="D50" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E50" s="23">
         <v>6</v>
@@ -2316,7 +2281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2345,56 +2310,56 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2424,7 +2389,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2456,13 +2421,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>111</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2474,13 +2439,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>147</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="16">
         <v>6</v>
@@ -2489,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind &gt;= ,AND TxKind &lt;= ,AND AdjCode &gt;= ,AND AdjCode &lt;=   ,AND AdjDate &gt;= ,AND AdjDate &lt;=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>JsonFields</t>
   </si>
   <si>
@@ -394,9 +390,6 @@
   <si>
     <t>指標利率代碼</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND BaseRateCode = </t>
   </si>
   <si>
     <t>baseRateCodeEq</t>
@@ -494,10 +487,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND ConfirmFlag = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaTlrNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -528,10 +517,6 @@
   <si>
     <t>調整前借戶利率檔個別加碼利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjCodeEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AdjDate = ,AND TxKind = ,AND RateKeyInCode = </t>
@@ -609,20 +594,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0:未調整
-1:已調整
-2:待輸入
-9:待處理(檢核有誤)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未確認
-1:確認未放行
-2:已確認放行
-L4321維護，確認後Table欄位不可更改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CdCode.EntCode
 0:個金
 1:企金
@@ -647,6 +618,36 @@
   <si>
     <t>ContrRateIncr</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未調整
+1:已調整
+2:待輸入
+9:待處理(檢核有誤)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未確認
+1:確認未放行
+2:已確認放行
+L4321維護，確認後Table欄位不可更改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND BaseRateCode = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjCodeEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind &gt;= ,AND TxKind &lt;= ,AND AdjCode &gt;= ,AND AdjCode &lt;=   ,AND AdjDate &gt;= ,AND AdjDate &lt;=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND AdjCode &gt;= ,AND AdjCode &lt;= ,AND ConfirmFlag = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1303,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1327,7 +1328,7 @@
         <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1522,7 +1523,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1593,14 +1594,14 @@
         <v>75</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48.6">
@@ -1611,7 +1612,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>35</v>
@@ -1621,7 +1622,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1632,7 +1633,7 @@
         <v>73</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>35</v>
@@ -1712,7 +1713,7 @@
         <v>77</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>59</v>
@@ -1722,7 +1723,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1781,7 +1782,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1821,7 +1822,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1851,7 +1852,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>36</v>
@@ -1863,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1895,7 +1896,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>36</v>
@@ -1934,7 +1935,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>33</v>
@@ -1955,10 +1956,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>36</v>
@@ -1978,10 +1979,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>38</v>
@@ -1993,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2004,7 +2005,7 @@
         <v>65</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>38</v>
@@ -2016,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2024,10 +2025,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>34</v>
@@ -2037,7 +2038,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2058,7 +2059,7 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2066,10 +2067,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>35</v>
@@ -2081,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2089,10 +2090,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>59</v>
@@ -2102,7 +2103,7 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2113,7 +2114,7 @@
         <v>90</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>35</v>
@@ -2129,13 +2130,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>97</v>
-      </c>
       <c r="D43" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" s="31">
         <v>300</v>
@@ -2148,13 +2149,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2165,10 +2166,10 @@
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>34</v>
@@ -2183,10 +2184,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>34</v>
@@ -2284,9 +2285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2310,10 +2311,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2329,18 +2330,18 @@
         <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2348,18 +2349,18 @@
         <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2390,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2421,13 +2422,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2439,13 +2440,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" s="16">
         <v>6</v>
@@ -2454,7 +2455,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -588,12 +588,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1:批次自動調整
-2:按地區別調整
-3:人工調整 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CdCode.EntCode
 0:個金
 1:企金
@@ -648,6 +642,14 @@
   <si>
     <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND AdjCode &gt;= ,AND AdjCode &lt;= ,AND ConfirmFlag = </t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:批次自動調整
+2:按地區別調整
+3:人工調整
+4.批次自動調整(提醒件)
+ (下次利率調整日為到期日、非下次利率調整日調整)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1304,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1315,7 +1317,7 @@
     <col min="3" max="3" width="28" style="18" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.5546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="73.21875" style="16" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
@@ -1604,7 +1606,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="48.6">
+    <row r="18" spans="1:7" ht="81">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1622,7 +1624,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1643,7 +1645,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1664,7 +1666,7 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1822,7 +1824,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1979,7 +1981,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>127</v>
@@ -2038,7 +2040,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2059,7 +2061,7 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2285,7 +2287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
@@ -2314,7 +2316,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2330,12 +2332,12 @@
         <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>131</v>
@@ -2349,7 +2351,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>144</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -9,19 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="162">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -561,14 +571,6 @@
   <si>
     <t>FitRate</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>借戶利率檔適用利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前利率 &lt;&gt; 借戶利率檔適用利率(預調利率)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo,BormNo</t>
@@ -650,6 +652,30 @@
 4.批次自動調整(提醒件)
  (下次利率調整日為到期日、非下次利率調整日調整)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RateIncr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndividualIncr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶利率檔個人加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶利率檔適用利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶利率檔加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新前保留</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -855,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,15 +991,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1306,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1316,16 +1333,17 @@
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="18" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.21875" style="16" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1337,8 +1355,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
@@ -1350,10 +1368,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="12" t="s">
         <v>85</v>
       </c>
@@ -1365,10 +1383,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1376,10 +1394,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1387,10 +1405,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1398,10 +1416,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1525,7 +1543,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1603,7 +1621,7 @@
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="81">
@@ -1624,7 +1642,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1645,7 +1663,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1666,7 +1684,7 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1824,7 +1842,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1981,7 +1999,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>127</v>
@@ -2040,7 +2058,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2061,7 +2079,7 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2141,14 +2159,14 @@
         <v>111</v>
       </c>
       <c r="E43" s="31">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="31">
-        <v>8</v>
+      <c r="A44" s="19">
+        <v>36</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>116</v>
@@ -2165,7 +2183,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>123</v>
@@ -2179,11 +2197,11 @@
       <c r="E45" s="19">
         <v>6</v>
       </c>
-      <c r="G45" s="42"/>
+      <c r="G45" s="39"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>120</v>
@@ -2197,11 +2215,11 @@
       <c r="E46" s="19">
         <v>8</v>
       </c>
-      <c r="G46" s="42"/>
+      <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>44</v>
@@ -2217,7 +2235,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>47</v>
@@ -2235,7 +2253,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>50</v>
@@ -2251,7 +2269,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="19">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>53</v>
@@ -2316,7 +2334,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2332,12 +2350,12 @@
         <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>131</v>
@@ -2351,10 +2369,10 @@
         <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2374,15 +2392,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="8.88671875" style="37"/>
     <col min="2" max="2" width="5.21875" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" customWidth="1"/>
@@ -2391,7 +2409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2419,7 +2437,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -2437,15 +2455,15 @@
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="16">
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>104</v>
@@ -2456,19 +2474,56 @@
       <c r="G6" s="16">
         <v>4</v>
       </c>
-      <c r="H6" s="42" t="s">
-        <v>143</v>
+      <c r="H6" s="39" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="16">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16">
+        <v>4</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="16">
+        <v>4</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="16">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7826F6B0-990D-4108-8838-16A6DBE93F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,21 +18,11 @@
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="164">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -677,11 +668,19 @@
     <t>更新前保留</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND PreNextAdjDate =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL2980printFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1017,9 +1016,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般 2 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1110,6 +1109,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1145,6 +1161,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1320,11 +1353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2302,12 +2335,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2383,6 +2416,14 @@
         <v>124</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2391,10 +2432,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7826F6B0-990D-4108-8838-16A6DBE93F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD1185C-2888-4D15-84D1-13A09C8F2ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -637,51 +637,52 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>RateIncr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndividualIncr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶利率檔個人加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶利率檔適用利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶利率檔加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新前保留</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND PreNextAdjDate =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL2980printFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>1:批次自動調整
 2:按地區別調整
 3:人工調整
-4.批次自動調整(提醒件)
- (下次利率調整日為到期日、非下次利率調整日調整)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RateIncr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IndividualIncr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>借戶利率檔個人加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>借戶利率檔適用利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>借戶利率檔加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新前保留</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND PreNextAdjDate =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL2980printFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+4.定期機動提醒件
+ (下次利率調整日&lt;調整月份且下次利率調整日&lt;到期日)
+5:定期機動指標利率調整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1356,11 +1357,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1372,7 +1373,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1388,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
@@ -1400,7 +1401,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1416,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
@@ -1426,7 +1427,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1438,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1449,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
@@ -1459,7 +1460,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1501,7 +1502,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1520,7 +1521,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1539,7 +1540,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1558,7 +1559,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="97.2">
+    <row r="13" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1598,7 +1599,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1617,7 +1618,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1636,7 +1637,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="32.4">
+    <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="81">
+    <row r="18" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1675,10 +1676,10 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="64.8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="64.8">
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1739,7 +1740,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1758,7 +1759,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1798,7 +1799,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1817,7 +1818,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -1857,7 +1858,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" ht="64.8">
+    <row r="28" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -1897,7 +1898,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>23</v>
       </c>
@@ -1941,7 +1942,7 @@
       </c>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>24</v>
       </c>
@@ -1962,7 +1963,7 @@
       </c>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>25</v>
       </c>
@@ -1983,7 +1984,7 @@
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>26</v>
       </c>
@@ -2004,7 +2005,7 @@
       </c>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>27</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>28</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>29</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="81">
+    <row r="38" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>30</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="64.8">
+    <row r="39" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>31</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>32</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>33</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>34</v>
       </c>
@@ -2178,7 +2179,7 @@
       <c r="F42" s="19"/>
       <c r="G42" s="28"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <v>35</v>
       </c>
@@ -2197,7 +2198,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="32"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>36</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>37</v>
       </c>
@@ -2232,7 +2233,7 @@
       </c>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <v>38</v>
       </c>
@@ -2250,7 +2251,7 @@
       </c>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <v>39</v>
       </c>
@@ -2266,7 +2267,7 @@
       <c r="E47" s="23"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <v>40</v>
       </c>
@@ -2284,7 +2285,7 @@
       </c>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <v>41</v>
       </c>
@@ -2300,7 +2301,7 @@
       <c r="E49" s="23"/>
       <c r="G49" s="25"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <v>42</v>
       </c>
@@ -2338,12 +2339,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="151.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2351,7 +2352,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
@@ -2416,12 +2417,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2436,10 +2437,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="37"/>
     <col min="2" max="2" width="5.21875" customWidth="1"/>
@@ -2449,12 +2450,12 @@
     <col min="8" max="8" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1">
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="16">
         <v>1</v>
@@ -2495,16 +2496,16 @@
       <c r="G5" s="16"/>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38"/>
       <c r="B6" s="16">
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>104</v>
@@ -2516,19 +2517,19 @@
         <v>4</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38"/>
       <c r="B7" s="16">
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>157</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>158</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>104</v>
@@ -2540,10 +2541,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>4</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>141</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>104</v>
@@ -2563,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD1185C-2888-4D15-84D1-13A09C8F2ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -672,17 +671,15 @@
     <t>1:批次自動調整
 2:按地區別調整
 3:人工調整
-4.定期機動提醒件
- (下次利率調整日&lt;調整月份且下次利率調整日&lt;到期日)
-5:定期機動指標利率調整</t>
+4.檢核提醒件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1017,9 +1014,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般 2 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1110,23 +1107,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1162,23 +1142,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1354,14 +1317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1373,7 +1336,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1351,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
@@ -1401,7 +1364,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="32.4">
       <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1379,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +1390,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1401,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1412,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1423,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="15" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1502,7 +1465,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1521,7 +1484,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1540,7 +1503,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1559,7 +1522,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="97.2">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1580,7 +1543,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1599,7 +1562,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1618,7 +1581,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1637,7 +1600,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="32.4">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1658,7 +1621,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="64.8">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1679,7 +1642,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="64.8">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1700,7 +1663,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="64.8">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1721,7 +1684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1740,7 +1703,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1759,7 +1722,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1780,7 +1743,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1799,7 +1762,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1818,7 +1781,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -1839,7 +1802,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -1858,7 +1821,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="64.8">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -1879,7 +1842,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -1898,7 +1861,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -1921,7 +1884,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="19">
         <v>23</v>
       </c>
@@ -1942,7 +1905,7 @@
       </c>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="19">
         <v>24</v>
       </c>
@@ -1963,7 +1926,7 @@
       </c>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="19">
         <v>25</v>
       </c>
@@ -1984,7 +1947,7 @@
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="19">
         <v>26</v>
       </c>
@@ -2005,7 +1968,7 @@
       </c>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="19">
         <v>27</v>
       </c>
@@ -2028,7 +1991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="19">
         <v>28</v>
       </c>
@@ -2051,7 +2014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="19">
         <v>29</v>
       </c>
@@ -2074,7 +2037,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="81">
       <c r="A38" s="19">
         <v>30</v>
       </c>
@@ -2095,7 +2058,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="64.8">
       <c r="A39" s="19">
         <v>31</v>
       </c>
@@ -2116,7 +2079,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="19">
         <v>32</v>
       </c>
@@ -2139,7 +2102,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="19">
         <v>33</v>
       </c>
@@ -2160,7 +2123,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="19">
         <v>34</v>
       </c>
@@ -2179,7 +2142,7 @@
       <c r="F42" s="19"/>
       <c r="G42" s="28"/>
     </row>
-    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="19">
         <v>35</v>
       </c>
@@ -2198,7 +2161,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="32"/>
     </row>
-    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="19">
         <v>36</v>
       </c>
@@ -2215,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="19">
         <v>37</v>
       </c>
@@ -2233,7 +2196,7 @@
       </c>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="19">
         <v>38</v>
       </c>
@@ -2251,7 +2214,7 @@
       </c>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="19">
         <v>39</v>
       </c>
@@ -2267,7 +2230,7 @@
       <c r="E47" s="23"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="19">
         <v>40</v>
       </c>
@@ -2285,7 +2248,7 @@
       </c>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="19">
         <v>41</v>
       </c>
@@ -2301,7 +2264,7 @@
       <c r="E49" s="23"/>
       <c r="G49" s="25"/>
     </row>
-    <row r="50" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="19">
         <v>42</v>
       </c>
@@ -2336,7 +2299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2344,7 +2307,7 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="151.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2352,7 +2315,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -2371,7 +2334,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -2379,7 +2342,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2387,7 +2350,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
@@ -2398,7 +2361,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
@@ -2409,7 +2372,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
@@ -2417,7 +2380,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>162</v>
       </c>
@@ -2433,14 +2396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="37"/>
     <col min="2" max="2" width="5.21875" customWidth="1"/>
@@ -2450,12 +2413,12 @@
     <col min="8" max="8" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
@@ -2478,7 +2441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="7" customFormat="1">
       <c r="A5" s="38"/>
       <c r="B5" s="16">
         <v>1</v>
@@ -2496,7 +2459,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="A6" s="38"/>
       <c r="B6" s="16">
         <v>2</v>
@@ -2520,7 +2483,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
       <c r="A7" s="38"/>
       <c r="B7" s="16">
         <v>3</v>
@@ -2544,7 +2507,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="16">
         <v>4</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="171">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -271,10 +271,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RateIncr</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>ProdNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -449,10 +445,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>調整前借戶利率檔加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>目前生效日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -507,14 +499,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整前借戶利率檔加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>調整前借戶利率檔個別加碼利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -556,10 +540,6 @@
   </si>
   <si>
     <t>利率未變動為零</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FitRate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -602,10 +582,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ContrRateIncr</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>0:未調整
 1:已調整
 2:待輸入
@@ -636,19 +612,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RateIncr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>IndividualIncr</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>借戶利率檔個人加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>借戶利率檔適用利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -672,6 +640,66 @@
 2:按地區別調整
 3:人工調整
 4.檢核提醒件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次調整日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawdownDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaturityDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstAdjRateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarnMsg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示訊息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RateIncr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContrRateIncr</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RateIncr</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔加碼利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1320,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1345,7 +1373,7 @@
         <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1355,7 +1383,7 @@
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1370,7 +1398,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1451,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>59</v>
@@ -1527,10 +1555,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>93</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>35</v>
@@ -1540,7 +1568,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1605,20 +1633,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>75</v>
-      </c>
       <c r="D17" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="64.8">
@@ -1626,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>35</v>
@@ -1639,7 +1667,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1647,10 +1675,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>35</v>
@@ -1660,7 +1688,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1668,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>88</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>35</v>
@@ -1681,7 +1709,7 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1727,10 +1755,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>59</v>
@@ -1740,7 +1768,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1767,10 +1795,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>59</v>
@@ -1786,10 +1814,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>35</v>
@@ -1799,7 +1827,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1839,7 +1867,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1847,7 +1875,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>27</v>
@@ -1866,10 +1894,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>36</v>
@@ -1881,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1910,10 +1938,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>36</v>
@@ -1931,10 +1959,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>36</v>
@@ -1952,7 +1980,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>33</v>
@@ -1973,10 +2001,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>36</v>
@@ -1988,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1996,10 +2024,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>38</v>
@@ -2011,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2022,7 +2050,7 @@
         <v>65</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>38</v>
@@ -2034,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2042,10 +2070,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>34</v>
@@ -2055,7 +2083,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2066,7 +2094,7 @@
         <v>67</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>61</v>
@@ -2076,7 +2104,7 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2084,10 +2112,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>35</v>
@@ -2099,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2107,10 +2135,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>59</v>
@@ -2120,7 +2148,7 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2128,10 +2156,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>35</v>
@@ -2147,13 +2175,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>96</v>
-      </c>
       <c r="D43" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="31">
         <v>2000</v>
@@ -2166,13 +2194,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2183,10 +2211,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>34</v>
@@ -2201,10 +2229,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>34</v>
@@ -2328,10 +2356,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2339,7 +2367,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2347,45 +2375,45 @@
         <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2397,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2415,7 +2443,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2447,13 +2475,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>108</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2465,37 +2493,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="16">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16">
-        <v>4</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
+        <v>109</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1">
       <c r="A7" s="38"/>
       <c r="B7" s="16">
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="16">
         <v>6</v>
@@ -2504,21 +2526,22 @@
         <v>4</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A8" s="38"/>
       <c r="B8" s="16">
         <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="16">
         <v>6</v>
@@ -2527,8 +2550,65 @@
         <v>4</v>
       </c>
       <c r="H8" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="16">
+        <v>8</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="16">
+        <v>6</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>160</v>
       </c>
+      <c r="D10" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="16">
+        <v>8</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="16">
+        <v>7</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="16">
+        <v>8</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="162">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>調整後利率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2</t>
   </si>
   <si>
@@ -314,15 +310,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>擬調利率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>利率區分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreNextAdjFreq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -354,10 +342,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TxRateAdjFreq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>findL4321Report</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -370,10 +354,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ContrIndexRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>JsonFields</t>
   </si>
   <si>
@@ -396,18 +376,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>本次指標利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NowIndexRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DECIMAL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -449,10 +417,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>目前利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>OvduTerm</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -487,10 +451,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>合約指標利率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>個別加碼利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -532,14 +492,6 @@
   </si>
   <si>
     <t>CurrBaseRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContrBaseRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率未變動為零</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -567,6 +519,131 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>CdCode.FacmRateCode
+1:機動
+2:固定
+3:定期機動</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未確認
+1:確認未放行
+2:已確認放行
+L4321維護，確認後Table欄位不可更改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND BaseRateCode = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjCodeEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind &gt;= ,AND TxKind &lt;= ,AND AdjCode &gt;= ,AND AdjCode &lt;=   ,AND AdjDate &gt;= ,AND AdjDate &lt;=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND AdjCode &gt;= ,AND AdjCode &lt;= ,AND ConfirmFlag = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndividualIncr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶利率檔個人加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶利率檔加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新前保留</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND PreNextAdjDate =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL2980printFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:批次自動調整
+2:按地區別調整
+3:人工調整
+4.檢核提醒件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarnMsg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示訊息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RateIncr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContrRateIncr</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RateIncr</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次指標利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率未變動為零</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約指標利率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>同ContrBaseRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContrBaseRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxRateAdjFreq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreNextAdjFreq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後利率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>擬調利率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>CdCode.ProdBaseRateCode
 01:保單分紅利率
 02:郵政儲金利率 
@@ -575,10 +652,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.FacmRateCode
-1:機動
-2:固定
-3:定期機動</t>
+    <t>目前利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -589,117 +663,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>0:未確認
-1:確認未放行
-2:已確認放行
-L4321維護，確認後Table欄位不可更改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND BaseRateCode = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjCodeEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind &gt;= ,AND TxKind &lt;= ,AND AdjCode &gt;= ,AND AdjCode &lt;=   ,AND AdjDate &gt;= ,AND AdjDate &lt;=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND AdjCode &gt;= ,AND AdjCode &lt;= ,AND ConfirmFlag = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IndividualIncr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>借戶利率檔個人加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>借戶利率檔加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新前保留</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND PreNextAdjDate =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL2980printFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:批次自動調整
-2:按地區別調整
-3:人工調整
-4.檢核提醒件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撥款日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次調整日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrawdownDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaturityDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstAdjRateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMALD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WarnMsg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示訊息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>RateIncr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContrRateIncr</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RateIncr</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整前借戶利率檔加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整前借戶利率檔加碼利率</t>
+    <t>自訂利率時：0
+指標利率時：擬調利率(已調整時為調整後利率)減指標利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1348,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1370,10 +1335,10 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1383,7 +1348,7 @@
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1398,7 +1363,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1479,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -1498,13 +1463,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="19">
         <v>7</v>
@@ -1517,13 +1482,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
@@ -1536,13 +1501,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="19">
         <v>3</v>
@@ -1555,20 +1520,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1576,13 +1541,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="19">
         <v>14</v>
@@ -1595,13 +1560,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
@@ -1614,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="19">
         <v>3</v>
@@ -1633,20 +1598,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>74</v>
-      </c>
       <c r="D17" s="27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="64.8">
@@ -1654,20 +1619,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="23">
         <v>1</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1675,20 +1640,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1696,20 +1661,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1723,7 +1688,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="19">
         <v>14</v>
@@ -1742,7 +1707,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="19">
         <v>14</v>
@@ -1755,20 +1720,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="23">
         <v>8</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1776,13 +1741,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="23">
         <v>8</v>
@@ -1795,13 +1760,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="23">
         <v>8</v>
@@ -1814,34 +1779,32 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="23">
         <v>2</v>
       </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="21" t="s">
-        <v>102</v>
-      </c>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="19">
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="23">
         <v>8</v>
@@ -1860,14 +1823,14 @@
         <v>21</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1875,13 +1838,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="19">
         <v>5</v>
@@ -1889,18 +1852,18 @@
       <c r="F29" s="19"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="32.4">
       <c r="A30" s="19">
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="19">
         <v>6</v>
@@ -1909,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1917,13 +1880,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="19">
         <v>6</v>
@@ -1938,13 +1901,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="19">
         <v>6</v>
@@ -1959,13 +1922,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="19">
         <v>6</v>
@@ -1980,13 +1943,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="19">
         <v>6</v>
@@ -2001,13 +1964,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="19">
         <v>6</v>
@@ -2015,22 +1978,20 @@
       <c r="F35" s="19">
         <v>4</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="19">
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="19">
         <v>6</v>
@@ -2039,7 +2000,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2047,13 +2008,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="19">
         <v>6</v>
@@ -2062,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2070,20 +2031,20 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="23">
         <v>2</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2091,20 +2052,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="27">
         <v>1</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2112,13 +2073,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="19">
         <v>6</v>
@@ -2127,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2135,20 +2096,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="23">
         <v>8</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2156,13 +2117,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" s="23">
         <v>2</v>
@@ -2175,13 +2136,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E43" s="31">
         <v>2000</v>
@@ -2194,13 +2155,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2211,13 +2172,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="19">
         <v>6</v>
@@ -2229,13 +2190,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" s="19">
         <v>8</v>
@@ -2247,13 +2208,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="E47" s="23"/>
       <c r="G47" s="25"/>
@@ -2263,13 +2224,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="E48" s="23">
         <v>6</v>
@@ -2281,13 +2242,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="E49" s="23"/>
       <c r="G49" s="25"/>
@@ -2297,13 +2258,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>54</v>
-      </c>
       <c r="D50" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E50" s="23">
         <v>6</v>
@@ -2356,64 +2317,64 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2425,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2443,7 +2404,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="37" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2475,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2493,13 +2454,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -2511,13 +2472,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F7" s="16">
         <v>6</v>
@@ -2526,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
@@ -2535,13 +2496,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F8" s="16">
         <v>6</v>
@@ -2550,65 +2511,8 @@
         <v>4</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="16">
-        <v>5</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="16">
-        <v>8</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="16">
-        <v>6</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="16">
-        <v>8</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="16">
-        <v>7</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="16">
-        <v>8</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="39"/>
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -112,9 +112,6 @@
     <t>放款餘額</t>
   </si>
   <si>
-    <t>繳息迄日</t>
-  </si>
-  <si>
     <t>商品代碼</t>
   </si>
   <si>
@@ -247,10 +244,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>PrevIntDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>ContractRate</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -271,10 +264,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>PresentRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>ProposalRate</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -302,19 +291,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>調整前下次利率調整日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreNextAdjDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>利率區分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整前下次利率調整週期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -354,12 +331,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JsonFields</t>
-  </si>
-  <si>
-    <t>jason格式紀錄欄</t>
-  </si>
-  <si>
     <t>BaseRateCode</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -417,6 +388,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>目前利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>OvduTerm</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -477,10 +452,6 @@
   <si>
     <t>利率輸入記號</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjustedRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>放款利率變動檔生效日</t>
@@ -596,10 +567,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RateIncr</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -608,10 +575,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>本次指標利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>利率未變動為零</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -620,19 +583,15 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>ContrBaseRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>同ContrBaseRate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ContrBaseRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>TxRateAdjFreq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreNextAdjFreq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -652,10 +611,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>目前利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0:未調整
 1:已調整
 2:待輸入
@@ -663,8 +618,60 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>自訂利率時：0
+    <t>本次指標利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加碼值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrevIntDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>繳息迄日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreNextAdjDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustedRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>預定下次利率調整週期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreNextAdjFreq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonFields</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jason格式紀錄欄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PresentRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>自訂利率時：擬調利率(已調整時為調整後利率)減目前利率
 指標利率時：擬調利率(已調整時為調整後利率)減指標利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>預定下次利率調整日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後之下次利率調整日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1313,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1335,10 +1342,10 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1348,7 +1355,7 @@
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1363,7 +1370,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1444,13 +1451,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -1463,13 +1470,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="19">
         <v>7</v>
@@ -1482,13 +1489,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
@@ -1501,13 +1508,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="19">
         <v>3</v>
@@ -1520,20 +1527,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1541,13 +1548,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="19">
         <v>14</v>
@@ -1560,13 +1567,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
@@ -1579,13 +1586,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="19">
         <v>3</v>
@@ -1598,20 +1605,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="64.8">
@@ -1619,20 +1626,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="23">
         <v>1</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1640,20 +1647,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1661,20 +1668,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1682,13 +1689,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="19">
         <v>14</v>
@@ -1707,7 +1714,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="19">
         <v>14</v>
@@ -1720,20 +1727,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="23">
         <v>8</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1741,13 +1748,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="23">
         <v>8</v>
@@ -1760,32 +1767,34 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="23">
         <v>8</v>
       </c>
       <c r="F25" s="19"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="19">
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>79</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="23">
         <v>2</v>
@@ -1798,13 +1807,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="23">
         <v>8</v>
@@ -1817,20 +1826,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1838,13 +1847,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="19">
         <v>5</v>
@@ -1857,13 +1866,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="19">
         <v>6</v>
@@ -1872,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1880,13 +1889,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="19">
         <v>6</v>
@@ -1901,13 +1910,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="19">
         <v>6</v>
@@ -1922,13 +1931,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="19">
         <v>6</v>
@@ -1943,13 +1952,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="19">
         <v>6</v>
@@ -1964,13 +1973,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="19">
         <v>6</v>
@@ -1985,13 +1994,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="19">
         <v>6</v>
@@ -2000,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2008,13 +2017,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="19">
         <v>6</v>
@@ -2023,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2031,20 +2040,20 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="23">
         <v>2</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2052,20 +2061,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="27">
         <v>1</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2073,13 +2082,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>149</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="19">
         <v>6</v>
@@ -2088,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2096,20 +2105,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="23">
         <v>8</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2117,13 +2126,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" s="23">
         <v>2</v>
@@ -2136,13 +2145,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E43" s="31">
         <v>2000</v>
@@ -2155,13 +2164,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2172,13 +2181,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" s="19">
         <v>6</v>
@@ -2190,13 +2199,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="19">
         <v>8</v>
@@ -2208,13 +2217,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="E47" s="23"/>
       <c r="G47" s="25"/>
@@ -2224,13 +2233,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="E48" s="23">
         <v>6</v>
@@ -2242,13 +2251,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="E49" s="23"/>
       <c r="G49" s="25"/>
@@ -2258,13 +2267,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>53</v>
-      </c>
       <c r="D50" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" s="23">
         <v>6</v>
@@ -2317,64 +2326,64 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2386,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2404,7 +2413,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2436,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2454,13 +2463,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -2468,41 +2477,27 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1">
       <c r="A7" s="38"/>
-      <c r="B7" s="16">
-        <v>3</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="16">
-        <v>6</v>
-      </c>
-      <c r="G7" s="16">
-        <v>4</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B7" s="16"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="A8" s="38"/>
       <c r="B8" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F8" s="16">
         <v>6</v>
@@ -2511,7 +2506,31 @@
         <v>4</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="16">
+        <v>6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -377,10 +377,6 @@
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整前借戶利率檔適用利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -544,13 +540,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1:批次自動調整
-2:按地區別調整
-3:人工調整
-4.檢核提醒件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>WarnMsg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -646,10 +635,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PreNextAdjFreq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>JsonFields</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -672,6 +657,26 @@
   </si>
   <si>
     <t>調整後之下次利率調整日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreNextAdjFreq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔利率生效日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔適用利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:批次自動調整
+2:按地區別調整
+3:人工調整
+4.檢核提醒件
+5.確認失敗件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1320,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1540,7 +1545,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1618,10 +1623,10 @@
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="64.8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="81">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1629,7 +1634,7 @@
         <v>67</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>33</v>
@@ -1639,7 +1644,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1650,7 +1655,7 @@
         <v>68</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>33</v>
@@ -1660,7 +1665,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1681,7 +1686,7 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1730,7 +1735,7 @@
         <v>72</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>57</v>
@@ -1740,7 +1745,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1767,10 +1772,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>57</v>
@@ -1780,7 +1785,7 @@
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1788,10 +1793,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>33</v>
@@ -1807,10 +1812,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>57</v>
@@ -1839,7 +1844,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1866,10 +1871,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>34</v>
@@ -1881,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1910,10 +1915,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>34</v>
@@ -1924,7 +1929,9 @@
       <c r="F32" s="19">
         <v>4</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G32" s="21" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19">
@@ -1934,7 +1941,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>34</v>
@@ -1952,10 +1959,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>37</v>
@@ -1973,10 +1980,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>34</v>
@@ -1994,10 +2001,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>36</v>
@@ -2009,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2020,7 +2027,7 @@
         <v>62</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>36</v>
@@ -2032,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2053,7 +2060,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2074,7 +2081,7 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2082,10 +2089,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>33</v>
@@ -2097,7 +2104,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2105,10 +2112,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>57</v>
@@ -2118,7 +2125,7 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2126,7 +2133,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>88</v>
@@ -2145,10 +2152,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>94</v>
@@ -2164,13 +2171,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="D44" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2181,10 +2188,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>32</v>
@@ -2199,10 +2206,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>32</v>
@@ -2329,7 +2336,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2345,18 +2352,18 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2364,26 +2371,26 @@
         <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2463,10 +2470,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>93</v>
@@ -2491,10 +2498,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>87</v>
@@ -2506,7 +2513,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
@@ -2515,10 +2522,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>128</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>87</v>
@@ -2530,7 +2537,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8976" windowHeight="492"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -627,10 +627,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AdjustedRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>預定下次利率調整週期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -645,11 +641,6 @@
   <si>
     <t>PresentRate</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>自訂利率時：擬調利率(已調整時為調整後利率)減目前利率
-指標利率時：擬調利率(已調整時為調整後利率)減指標利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>預定下次利率調整日</t>
@@ -677,6 +668,45 @@
 3:人工調整
 4.檢核提醒件
 5.確認失敗件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustedRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityRateIncr</t>
+  </si>
+  <si>
+    <t>CityRateCeiling</t>
+  </si>
+  <si>
+    <t>CityRateFloor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區別加減碼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區上限利率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區下限利率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubsidyRateDiff</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府補貼利率差額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>自訂利率時：0
+指標利率時：擬調利率(已調整時為調整後利率)減指標利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1326,7 +1356,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1644,7 +1674,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1745,7 +1775,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1775,7 +1805,7 @@
         <v>151</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>57</v>
@@ -1785,7 +1815,7 @@
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1793,10 +1823,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>33</v>
@@ -1886,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1915,7 +1945,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>96</v>
@@ -1930,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1959,7 +1989,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>143</v>
@@ -2152,10 +2182,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>154</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>155</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>94</v>
@@ -2402,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2484,24 +2514,36 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1">
       <c r="A7" s="38"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="16">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16">
+        <v>4</v>
+      </c>
       <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="A8" s="38"/>
       <c r="B8" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>128</v>
+        <v>164</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>167</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>87</v>
@@ -2512,20 +2554,18 @@
       <c r="G8" s="16">
         <v>4</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="A9" s="38"/>
       <c r="B9" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>127</v>
+        <v>165</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>87</v>
@@ -2536,7 +2576,75 @@
       <c r="G9" s="16">
         <v>4</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1">
+      <c r="A10" s="38"/>
+      <c r="B10" s="16">
+        <v>6</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="16">
+        <v>6</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4</v>
+      </c>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1">
+      <c r="A11" s="38"/>
+      <c r="B11" s="16">
+        <v>7</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="16">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16">
+        <v>4</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="16">
+        <v>8</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="16">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16">
+        <v>4</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8976" windowHeight="492"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -663,50 +663,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>AdjustedRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityRateIncr</t>
+  </si>
+  <si>
+    <t>CityRateCeiling</t>
+  </si>
+  <si>
+    <t>CityRateFloor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區別加減碼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區上限利率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區下限利率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubsidyRateDiff</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府補貼利率差額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>自訂利率時：0
+指標利率時：擬調利率(已調整時為調整後利率)減指標利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1:批次自動調整
 2:按地區別調整
-3:人工調整
-4.檢核提醒件
-5.確認失敗件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjustedRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityRateIncr</t>
-  </si>
-  <si>
-    <t>CityRateCeiling</t>
-  </si>
-  <si>
-    <t>CityRateFloor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>地區別加減碼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>地區上限利率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>地區下限利率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubsidyRateDiff</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府補貼利率差額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>自訂利率時：0
-指標利率時：擬調利率(已調整時為調整後利率)減指標利率</t>
+3:人工調整_按合約
+4.人工調整_按地區別
+8.確認失敗件
+9.檢核提醒件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1355,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1656,7 +1657,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="81">
+    <row r="18" spans="1:7" ht="104.4" customHeight="1">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1674,7 +1675,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1916,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1989,7 +1990,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>143</v>
@@ -2518,10 +2519,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>87</v>
@@ -2540,10 +2541,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>87</v>
@@ -2562,10 +2563,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>87</v>
@@ -2584,10 +2585,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>169</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>170</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>87</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="175">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -238,10 +238,6 @@
   <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurtEffDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ContractRate</t>
@@ -600,13 +596,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0:未調整
-1:已調整
-2:待輸入
-9:待處理(檢核有誤)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>本次指標利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -709,6 +698,29 @@
 8.確認失敗件
 9.檢核提醒件</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurtEffDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjDate Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjDateDescFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未調整
+1:已調整
+2:待輸入
+9:檢核有誤</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1356,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1381,7 +1393,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1391,7 +1403,7 @@
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1406,7 +1418,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1487,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>57</v>
@@ -1563,10 +1575,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>82</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>33</v>
@@ -1576,7 +1588,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1641,20 +1653,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>70</v>
-      </c>
       <c r="D17" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="104.4" customHeight="1">
@@ -1662,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>33</v>
@@ -1675,7 +1687,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1683,10 +1695,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>33</v>
@@ -1696,7 +1708,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1704,10 +1716,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>33</v>
@@ -1717,7 +1729,7 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1763,10 +1775,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>57</v>
@@ -1776,7 +1788,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1784,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>31</v>
@@ -1803,10 +1815,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>57</v>
@@ -1816,7 +1828,7 @@
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1824,10 +1836,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>33</v>
@@ -1843,10 +1855,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>57</v>
@@ -1875,7 +1887,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1883,7 +1895,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>26</v>
@@ -1902,10 +1914,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>34</v>
@@ -1917,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1925,7 +1937,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>27</v>
@@ -1946,10 +1958,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>34</v>
@@ -1961,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1969,10 +1981,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>34</v>
@@ -1990,10 +2002,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>37</v>
@@ -2011,10 +2023,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>34</v>
@@ -2032,10 +2044,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>36</v>
@@ -2047,7 +2059,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2055,10 +2067,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>36</v>
@@ -2070,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2078,10 +2090,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>32</v>
@@ -2091,7 +2103,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2099,10 +2111,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>59</v>
@@ -2112,7 +2124,7 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2120,10 +2132,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>33</v>
@@ -2135,7 +2147,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2143,10 +2155,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>57</v>
@@ -2156,7 +2168,7 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2164,10 +2176,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>33</v>
@@ -2183,13 +2195,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="31">
         <v>2000</v>
@@ -2202,13 +2214,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="D44" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2219,10 +2231,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>32</v>
@@ -2237,10 +2249,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>32</v>
@@ -2336,16 +2348,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="151.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -2364,10 +2376,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2375,53 +2387,64 @@
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2474,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2483,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>91</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2501,13 +2524,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>133</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -2519,13 +2542,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="16">
         <v>6</v>
@@ -2541,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="16">
         <v>6</v>
@@ -2563,13 +2586,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="16">
         <v>6</v>
@@ -2585,13 +2608,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="16">
         <v>6</v>
@@ -2607,13 +2630,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="16">
         <v>6</v>
@@ -2622,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
@@ -2631,13 +2654,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>127</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="16">
         <v>6</v>
@@ -2646,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -454,10 +454,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CurrBaseRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo,FacmNo,BormNo</t>
   </si>
   <si>
@@ -691,36 +687,40 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>CurtEffDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjDate Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjDateDescFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未調整
+1:已調整
+2:待輸入
+9:檢核有誤</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>1:批次自動調整
 2:按地區別調整
 3:人工調整_按合約
 4.人工調整_按地區別
 8.確認失敗件
-9.檢核提醒件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurtEffDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjDate Desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjDateDescFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未調整
-1:已調整
-2:待輸入
-9:檢核有誤</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+9.到期日提醒件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrBaseRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="104.4" customHeight="1">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1796,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>31</v>
@@ -1815,10 +1815,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>57</v>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1836,10 +1836,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>33</v>
@@ -1855,10 +1855,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>57</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1914,10 +1914,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>34</v>
@@ -1929,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1958,7 +1958,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>95</v>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1984,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>34</v>
@@ -2002,10 +2002,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>37</v>
@@ -2023,10 +2023,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>34</v>
@@ -2044,7 +2044,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>106</v>
@@ -2059,7 +2059,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2132,10 +2132,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>33</v>
@@ -2147,7 +2147,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2176,7 +2176,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>87</v>
@@ -2195,10 +2195,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>152</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>93</v>
@@ -2379,7 +2379,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2395,12 +2395,12 @@
         <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>108</v>
@@ -2414,10 +2414,10 @@
         <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2430,21 +2430,21 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2524,10 +2524,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>131</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>132</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>92</v>
@@ -2542,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>86</v>
@@ -2564,10 +2564,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>86</v>
@@ -2586,10 +2586,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>86</v>
@@ -2608,10 +2608,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>166</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>167</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>86</v>
@@ -2630,10 +2630,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>86</v>
@@ -2645,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
@@ -2654,10 +2654,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>125</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>126</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>86</v>
@@ -2669,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8B1B90-D0C7-46EC-8F0B-A3AEE979C32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="2688" yWindow="1104" windowWidth="19620" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -726,7 +727,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -926,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,10 +943,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -957,9 +958,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -972,9 +970,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,12 +1031,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,9 +1051,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般 2 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1155,6 +1144,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1190,6 +1196,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1365,30 +1388,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.21875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.21875" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
@@ -1400,78 +1423,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1490,845 +1513,845 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>8</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>7</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>3</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>3</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" ht="97.2">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>1</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="19" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>14</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>2</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>3</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="32.4">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>1</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="104.4" customHeight="1">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>1</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="21" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="19" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="17">
         <v>1</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="19" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <v>1</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="21" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="19" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>14</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <v>14</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>8</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="21" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="19" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>16</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <v>8</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="21"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="21">
         <v>8</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="21" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="19" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>18</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>2</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>19</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="21">
         <v>8</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="64.8">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <v>1</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="17"/>
+      <c r="G28" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>21</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <v>5</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="32.4">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>22</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="17">
         <v>6</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="17">
         <v>4</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="19" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>23</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="17">
         <v>6</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="17">
         <v>4</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>24</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="17">
         <v>6</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="17">
         <v>4</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <v>25</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="17">
         <v>6</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="17">
         <v>4</v>
       </c>
-      <c r="G33" s="21"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="19">
+      <c r="A34" s="17">
         <v>26</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <v>6</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="17">
         <v>4</v>
       </c>
-      <c r="G34" s="21"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="19">
+      <c r="A35" s="17">
         <v>27</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="17">
         <v>6</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="17">
         <v>4</v>
       </c>
-      <c r="G35" s="21"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="19">
+      <c r="A36" s="17">
         <v>28</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="17">
         <v>6</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="17">
         <v>4</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="19" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <v>29</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="17">
         <v>6</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="17">
         <v>4</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <v>30</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="21">
         <v>2</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="21" t="s">
+      <c r="F38" s="17"/>
+      <c r="G38" s="19" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28" t="s">
+      <c r="F39" s="25"/>
+      <c r="G39" s="26" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="19">
+      <c r="A40" s="17">
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="17">
         <v>6</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="17">
         <v>4</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="26" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="19">
+      <c r="A41" s="17">
         <v>33</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="21">
         <v>8</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="28" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="26" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="19">
+      <c r="A42" s="17">
         <v>34</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="21">
         <v>2</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="28"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="19">
+      <c r="A43" s="17">
         <v>35</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="29">
         <v>2000</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19">
+      <c r="A44" s="17">
         <v>36</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <v>37</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="17">
         <v>6</v>
       </c>
-      <c r="G45" s="39"/>
+      <c r="G45" s="35"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="19">
+      <c r="A46" s="17">
         <v>38</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="17">
         <v>8</v>
       </c>
-      <c r="G46" s="39"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="19">
+      <c r="A47" s="17">
         <v>39</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="G47" s="25"/>
+      <c r="E47" s="21"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="19">
+      <c r="A48" s="17">
         <v>40</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="21">
         <v>6</v>
       </c>
-      <c r="G48" s="25"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="19">
+      <c r="A49" s="17">
         <v>41</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="G49" s="25"/>
+      <c r="E49" s="21"/>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="19">
+      <c r="A50" s="17">
         <v>42</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="21">
         <v>6</v>
       </c>
-      <c r="G50" s="25"/>
+      <c r="G50" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2347,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2455,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2464,7 +2487,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="37"/>
     <col min="2" max="2" width="5.21875" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" customWidth="1"/>
@@ -2473,202 +2495,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="37" t="s">
+      <c r="A1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="35"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="35"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>6</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>4</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>6</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>4</v>
       </c>
-      <c r="H8" s="35"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>6</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>4</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>6</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>6</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>4</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>7</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>6</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>4</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="35" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>8</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>6</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>4</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="35" t="s">
         <v>127</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8B1B90-D0C7-46EC-8F0B-A3AEE979C32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E2757-BEEF-411F-B041-76E8DA1D2A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1104" windowWidth="19620" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="174">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -181,10 +181,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -201,10 +197,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
@@ -723,12 +715,15 @@
     <t>CurrBaseRate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1069,9 +1064,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1109,9 +1104,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1144,26 +1139,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,26 +1174,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1391,11 +1352,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1407,7 +1368,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
@@ -1416,17 +1377,17 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1435,13 +1396,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1450,7 +1411,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1422,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1433,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -1483,7 +1444,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -1494,7 +1455,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1517,18 +1478,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="21">
         <v>8</v>
@@ -1536,7 +1497,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1555,7 +1516,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1574,15 +1535,15 @@
       <c r="F11" s="17"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>33</v>
@@ -1593,15 +1554,15 @@
       <c r="F12" s="17"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:7" ht="97.2">
+    <row r="13" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>33</v>
@@ -1611,10 +1572,10 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -1633,12 +1594,12 @@
       <c r="F14" s="17"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>22</v>
@@ -1652,12 +1613,12 @@
       <c r="F15" s="17"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>23</v>
@@ -1671,36 +1632,36 @@
       <c r="F16" s="17"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" ht="32.4">
+    <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="25">
         <v>1</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="104.4" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>33</v>
@@ -1710,18 +1671,18 @@
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="64.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>33</v>
@@ -1731,18 +1692,18 @@
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="64.8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>33</v>
@@ -1752,10 +1713,10 @@
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
@@ -1774,7 +1735,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>14</v>
       </c>
@@ -1793,39 +1754,39 @@
       <c r="F22" s="17"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="21">
         <v>8</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" s="21">
         <v>8</v>
@@ -1833,36 +1794,36 @@
       <c r="F24" s="17"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" s="21">
         <v>8</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>33</v>
@@ -1873,18 +1834,18 @@
       <c r="F26" s="17"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="21">
         <v>8</v>
@@ -1892,7 +1853,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" ht="64.8">
+    <row r="28" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>20</v>
       </c>
@@ -1910,15 +1871,15 @@
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>26</v>
@@ -1932,15 +1893,15 @@
       <c r="F29" s="17"/>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:7" ht="32.4">
+    <row r="30" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>34</v>
@@ -1952,15 +1913,15 @@
         <v>4</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>27</v>
@@ -1976,15 +1937,15 @@
       </c>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>34</v>
@@ -1996,18 +1957,18 @@
         <v>4</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>34</v>
@@ -2020,15 +1981,15 @@
       </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>37</v>
@@ -2041,15 +2002,15 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>34</v>
@@ -2062,15 +2023,15 @@
       </c>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>36</v>
@@ -2082,18 +2043,18 @@
         <v>4</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>36</v>
@@ -2105,18 +2066,18 @@
         <v>4</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="81">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>32</v>
@@ -2126,39 +2087,39 @@
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="64.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E39" s="25">
         <v>1</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>33</v>
@@ -2170,39 +2131,39 @@
         <v>4</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41" s="21">
         <v>8</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>33</v>
@@ -2213,18 +2174,18 @@
       <c r="F42" s="17"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>35</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E43" s="29">
         <v>2000</v>
@@ -2232,32 +2193,32 @@
       <c r="F43" s="29"/>
       <c r="G43" s="30"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="E44" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>32</v>
@@ -2267,15 +2228,15 @@
       </c>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>38</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>32</v>
@@ -2285,7 +2246,7 @@
       </c>
       <c r="G46" s="35"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>39</v>
       </c>
@@ -2296,57 +2257,57 @@
         <v>43</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="E47" s="21"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>40</v>
       </c>
       <c r="B48" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="D48" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="E48" s="21">
         <v>6</v>
       </c>
       <c r="G48" s="23"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>41</v>
       </c>
       <c r="B49" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="D49" s="22" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="E49" s="21"/>
       <c r="G49" s="23"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>42</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="21">
         <v>6</v>
@@ -2378,7 +2339,7 @@
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="151.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2386,7 +2347,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2397,77 +2358,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +2446,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.21875" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
@@ -2494,12 +2455,12 @@
     <col min="8" max="8" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
@@ -2522,52 +2483,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1">
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" s="14">
         <v>6</v>
@@ -2577,18 +2538,18 @@
       </c>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>4</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="14">
         <v>6</v>
@@ -2598,18 +2559,18 @@
       </c>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>5</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="14">
         <v>6</v>
@@ -2619,18 +2580,18 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>6</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" s="14">
         <v>6</v>
@@ -2640,18 +2601,18 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>7</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" s="14">
         <v>6</v>
@@ -2660,21 +2621,21 @@
         <v>4</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>8</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="14">
         <v>6</v>
@@ -2683,7 +2644,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
